--- a/medicine/Sexualité et sexologie/Imejikurabu/Imejikurabu.xlsx
+++ b/medicine/Sexualité et sexologie/Imejikurabu/Imejikurabu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un image club (イメージクラブ, imējikurabu?), ou imekura (イメクラ?) japonais est une sorte de lupanar semblable aux salons de massages Fasshon herusu dont ils diffèrent cependant par le fait que la thématique des imekura est axée sur des fantasmes populaires tels que femme de service, chirurgien, élèves, intérieur d'un wagon, etc.
 Les Image clubs font leur apparition au début des années 1990 comme des lupanars à thème où chacun peut assouvir ses fantasmes. Espaces de sexualité virtuelle, ces clubs offrent le choix entre différentes alcôves séparées par de minces cloisons. Chaque alcôve est décorée en fonction du fantasme du client : « la séance de pelotage dans le métro », « le harcèlement sexuel au bureau », « la chambre d'étudiante », etc.
